--- a/biology/Médecine/Syndrome_du_grêle_court/Syndrome_du_grêle_court.xlsx
+++ b/biology/Médecine/Syndrome_du_grêle_court/Syndrome_du_grêle_court.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_du_gr%C3%AAle_court</t>
+          <t>Syndrome_du_grêle_court</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome du grêle court est la conséquence d'une résection (amputation) étendue du tube digestif à la suite d'une infection, d'un cancer, d'un syndrome d'obstruction intestinale distale (SOID) lors de la mucoviscidose, ou de suites opératoires de la maladie de Crohn.
 Il cause une malabsorption, liée à l'accélération importante du transit et à la diminution de la surface d'absorption de l'intestin. Il a trois types : I, II et III.
 La clinique dépend de la longueur de l'intestin réséqué. Parmi les manifestations cliniques :
 Une stéatorrhée.
-Diarrhée[1] (jusqu'à 3 litres par 24 heures) avec perte de connaissance et risque vital.
+Diarrhée (jusqu'à 3 litres par 24 heures) avec perte de connaissance et risque vital.
 Anémie macrocytaire par carence en vitamine B12.
 Lithiases oxaliques rénale.
 Crampes musculaires.
